--- a/templates/account.xlsx
+++ b/templates/account.xlsx
@@ -373,6 +373,27 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,29 +415,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,55 +748,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -827,224 +827,224 @@
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/templates/account.xlsx
+++ b/templates/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28635" windowHeight="11250" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20610" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Лицевой счет" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Дата</t>
   </si>
@@ -102,6 +102,109 @@
   </si>
   <si>
     <t>Карточка №</t>
+  </si>
+  <si>
+    <t>Всего:</t>
+  </si>
+  <si>
+    <t>ЛИЦЕВОЙ СЧЕТ</t>
+  </si>
+  <si>
+    <t>Дата прибытия</t>
+  </si>
+  <si>
+    <t>Временно или постоянно</t>
+  </si>
+  <si>
+    <t>Дата выбытия</t>
+  </si>
+  <si>
+    <t>Фамилия, инициалы</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Родственные отношения</t>
+  </si>
+  <si>
+    <t>Должность и место работы</t>
+  </si>
+  <si>
+    <t>Заработок</t>
+  </si>
+  <si>
+    <t>Удобства</t>
+  </si>
+  <si>
+    <t>Размер занимаемой площади</t>
+  </si>
+  <si>
+    <t>Движение кварплаты</t>
+  </si>
+  <si>
+    <t>Сведения о бронировании площади</t>
+  </si>
+  <si>
+    <t>Сведения о пребывании постоянных жильцов в ВС</t>
+  </si>
+  <si>
+    <t>По норме, кв.м.</t>
+  </si>
+  <si>
+    <t>Дополнительно, кв.м.</t>
+  </si>
+  <si>
+    <t>Излишки, кв.м.</t>
+  </si>
+  <si>
+    <t>Итого, кв.м.</t>
+  </si>
+  <si>
+    <t>Кол-во комнат</t>
+  </si>
+  <si>
+    <t>Размер, кв.м.</t>
+  </si>
+  <si>
+    <t>Заработок
+Количество</t>
+  </si>
+  <si>
+    <t>Кол-во иждевенцев</t>
+  </si>
+  <si>
+    <t>Комнатная такса</t>
+  </si>
+  <si>
+    <t>Плата за 1 кв.м.</t>
+  </si>
+  <si>
+    <t>Размер платы за отопление</t>
+  </si>
+  <si>
+    <t>Сведения о льготе</t>
+  </si>
+  <si>
+    <t>Квартиронаниматель</t>
+  </si>
+  <si>
+    <t>Справка о праве на дополнительную площадь</t>
+  </si>
+  <si>
+    <t>улица</t>
+  </si>
+  <si>
+    <t>дом №</t>
+  </si>
+  <si>
+    <t>квартира №</t>
+  </si>
+  <si>
+    <t>комната №</t>
+  </si>
+  <si>
+    <t>Кол-во лиц для нач. платежа за воду</t>
   </si>
 </sst>
 </file>
@@ -112,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
     <numFmt numFmtId="165" formatCode="[$-419]mmmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +233,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,123 +250,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="31">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -343,80 +343,524 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,24 +1163,2413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CS23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7:AY7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="34"/>
+      <c r="CF1" s="34"/>
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="34"/>
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="34"/>
+      <c r="CM1" s="34"/>
+      <c r="CN1" s="34"/>
+      <c r="CO1" s="34"/>
+      <c r="CP1" s="34"/>
+      <c r="CQ1" s="34"/>
+      <c r="CR1" s="34"/>
+      <c r="CS1" s="34"/>
+    </row>
+    <row r="2" spans="1:97" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="76"/>
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76"/>
+      <c r="BW2" s="76"/>
+      <c r="BX2" s="76"/>
+      <c r="BY2" s="76"/>
+      <c r="BZ2" s="76"/>
+      <c r="CA2" s="76"/>
+      <c r="CB2" s="76"/>
+      <c r="CC2" s="76"/>
+      <c r="CD2" s="76"/>
+      <c r="CE2" s="76"/>
+      <c r="CF2" s="76"/>
+      <c r="CG2" s="76"/>
+      <c r="CH2" s="76"/>
+      <c r="CI2" s="76"/>
+      <c r="CJ2" s="76"/>
+      <c r="CK2" s="76"/>
+      <c r="CL2" s="76"/>
+      <c r="CM2" s="76"/>
+      <c r="CN2" s="76"/>
+      <c r="CO2" s="76"/>
+      <c r="CP2" s="76"/>
+      <c r="CQ2" s="76"/>
+      <c r="CR2" s="76"/>
+      <c r="CS2" s="76"/>
+    </row>
+    <row r="3" spans="1:97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="32"/>
+    </row>
+    <row r="4" spans="1:97" s="70" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR4" s="72"/>
+      <c r="BS4" s="72"/>
+      <c r="BT4" s="72"/>
+      <c r="BU4" s="72"/>
+      <c r="BV4" s="72"/>
+      <c r="BW4" s="72"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="71"/>
+      <c r="CC4" s="71"/>
+      <c r="CD4" s="71"/>
+      <c r="CE4" s="71"/>
+      <c r="CF4" s="71"/>
+      <c r="CG4" s="71"/>
+      <c r="CH4" s="71"/>
+      <c r="CI4" s="71"/>
+      <c r="CJ4" s="71"/>
+      <c r="CK4" s="71"/>
+      <c r="CL4" s="71"/>
+      <c r="CM4" s="71"/>
+      <c r="CN4" s="71"/>
+      <c r="CO4" s="71"/>
+      <c r="CP4" s="71"/>
+    </row>
+    <row r="5" spans="1:97" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:97" s="35" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM6" s="39"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
+      <c r="BQ6" s="39"/>
+      <c r="BR6" s="39"/>
+      <c r="BS6" s="39"/>
+      <c r="BT6" s="39"/>
+      <c r="BU6" s="39"/>
+      <c r="BV6" s="39"/>
+      <c r="BW6" s="39"/>
+      <c r="BX6" s="39"/>
+      <c r="BY6" s="39"/>
+      <c r="BZ6" s="39"/>
+      <c r="CA6" s="39"/>
+      <c r="CB6" s="39"/>
+      <c r="CC6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD6" s="39"/>
+      <c r="CE6" s="39"/>
+      <c r="CF6" s="39"/>
+      <c r="CG6" s="39"/>
+      <c r="CH6" s="39"/>
+      <c r="CI6" s="39"/>
+      <c r="CJ6" s="39"/>
+      <c r="CK6" s="39"/>
+      <c r="CL6" s="39"/>
+      <c r="CM6" s="39"/>
+      <c r="CN6" s="39"/>
+      <c r="CO6" s="39"/>
+      <c r="CP6" s="39"/>
+      <c r="CQ6" s="39"/>
+      <c r="CR6" s="39"/>
+      <c r="CS6" s="40"/>
+    </row>
+    <row r="7" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="82"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
+      <c r="BQ7" s="67"/>
+      <c r="BR7" s="67"/>
+      <c r="BS7" s="67"/>
+      <c r="BT7" s="67"/>
+      <c r="BU7" s="67"/>
+      <c r="BV7" s="67"/>
+      <c r="BW7" s="67"/>
+      <c r="BX7" s="67"/>
+      <c r="BY7" s="67"/>
+      <c r="BZ7" s="67"/>
+      <c r="CA7" s="67"/>
+      <c r="CB7" s="67"/>
+      <c r="CC7" s="67"/>
+      <c r="CD7" s="67"/>
+      <c r="CE7" s="67"/>
+      <c r="CF7" s="67"/>
+      <c r="CG7" s="67"/>
+      <c r="CH7" s="67"/>
+      <c r="CI7" s="67"/>
+      <c r="CJ7" s="67"/>
+      <c r="CK7" s="67"/>
+      <c r="CL7" s="67"/>
+      <c r="CM7" s="67"/>
+      <c r="CN7" s="67"/>
+      <c r="CO7" s="67"/>
+      <c r="CP7" s="67"/>
+      <c r="CQ7" s="67"/>
+      <c r="CR7" s="67"/>
+      <c r="CS7" s="55"/>
+    </row>
+    <row r="8" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
+      <c r="BL8" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
+      <c r="BV8" s="68"/>
+      <c r="BW8" s="68"/>
+      <c r="BX8" s="68"/>
+      <c r="BY8" s="68"/>
+      <c r="BZ8" s="68"/>
+      <c r="CA8" s="68"/>
+      <c r="CB8" s="68"/>
+      <c r="CC8" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD8" s="68"/>
+      <c r="CE8" s="68"/>
+      <c r="CF8" s="68"/>
+      <c r="CG8" s="68"/>
+      <c r="CH8" s="68"/>
+      <c r="CI8" s="68"/>
+      <c r="CJ8" s="68"/>
+      <c r="CK8" s="68"/>
+      <c r="CL8" s="68"/>
+      <c r="CM8" s="68"/>
+      <c r="CN8" s="68"/>
+      <c r="CO8" s="68"/>
+      <c r="CP8" s="68"/>
+      <c r="CQ8" s="68"/>
+      <c r="CR8" s="68"/>
+      <c r="CS8" s="61"/>
+    </row>
+    <row r="9" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="68"/>
+      <c r="BM9" s="68"/>
+      <c r="BN9" s="68"/>
+      <c r="BO9" s="68"/>
+      <c r="BP9" s="68"/>
+      <c r="BQ9" s="68"/>
+      <c r="BR9" s="68"/>
+      <c r="BS9" s="68"/>
+      <c r="BT9" s="68"/>
+      <c r="BU9" s="68"/>
+      <c r="BV9" s="68"/>
+      <c r="BW9" s="68"/>
+      <c r="BX9" s="68"/>
+      <c r="BY9" s="68"/>
+      <c r="BZ9" s="68"/>
+      <c r="CA9" s="68"/>
+      <c r="CB9" s="68"/>
+      <c r="CC9" s="68"/>
+      <c r="CD9" s="68"/>
+      <c r="CE9" s="68"/>
+      <c r="CF9" s="68"/>
+      <c r="CG9" s="68"/>
+      <c r="CH9" s="68"/>
+      <c r="CI9" s="68"/>
+      <c r="CJ9" s="68"/>
+      <c r="CK9" s="68"/>
+      <c r="CL9" s="68"/>
+      <c r="CM9" s="68"/>
+      <c r="CN9" s="68"/>
+      <c r="CO9" s="68"/>
+      <c r="CP9" s="68"/>
+      <c r="CQ9" s="68"/>
+      <c r="CR9" s="68"/>
+      <c r="CS9" s="61"/>
+    </row>
+    <row r="10" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="78"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM10" s="62"/>
+      <c r="BN10" s="62"/>
+      <c r="BO10" s="62"/>
+      <c r="BP10" s="62"/>
+      <c r="BQ10" s="62"/>
+      <c r="BR10" s="62"/>
+      <c r="BS10" s="62"/>
+      <c r="BT10" s="62"/>
+      <c r="BU10" s="62"/>
+      <c r="BV10" s="62"/>
+      <c r="BW10" s="62"/>
+      <c r="BX10" s="62"/>
+      <c r="BY10" s="62"/>
+      <c r="BZ10" s="62"/>
+      <c r="CA10" s="62"/>
+      <c r="CB10" s="63"/>
+      <c r="CC10" s="68"/>
+      <c r="CD10" s="68"/>
+      <c r="CE10" s="68"/>
+      <c r="CF10" s="68"/>
+      <c r="CG10" s="68"/>
+      <c r="CH10" s="68"/>
+      <c r="CI10" s="68"/>
+      <c r="CJ10" s="68"/>
+      <c r="CK10" s="68"/>
+      <c r="CL10" s="68"/>
+      <c r="CM10" s="68"/>
+      <c r="CN10" s="68"/>
+      <c r="CO10" s="68"/>
+      <c r="CP10" s="68"/>
+      <c r="CQ10" s="68"/>
+      <c r="CR10" s="68"/>
+      <c r="CS10" s="61"/>
+    </row>
+    <row r="11" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="50"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
+      <c r="BP11" s="58"/>
+      <c r="BQ11" s="58"/>
+      <c r="BR11" s="58"/>
+      <c r="BS11" s="58"/>
+      <c r="BT11" s="58"/>
+      <c r="BU11" s="58"/>
+      <c r="BV11" s="58"/>
+      <c r="BW11" s="58"/>
+      <c r="BX11" s="58"/>
+      <c r="BY11" s="58"/>
+      <c r="BZ11" s="58"/>
+      <c r="CA11" s="58"/>
+      <c r="CB11" s="58"/>
+      <c r="CC11" s="58"/>
+      <c r="CD11" s="58"/>
+      <c r="CE11" s="58"/>
+      <c r="CF11" s="58"/>
+      <c r="CG11" s="58"/>
+      <c r="CH11" s="58"/>
+      <c r="CI11" s="58"/>
+      <c r="CJ11" s="58"/>
+      <c r="CK11" s="58"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="58"/>
+      <c r="CN11" s="58"/>
+      <c r="CO11" s="58"/>
+      <c r="CP11" s="58"/>
+      <c r="CQ11" s="58"/>
+      <c r="CR11" s="58"/>
+      <c r="CS11" s="57"/>
+    </row>
+    <row r="12" spans="1:97" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
+      <c r="BP12" s="59"/>
+      <c r="BQ12" s="59"/>
+      <c r="BR12" s="59"/>
+      <c r="BS12" s="59"/>
+      <c r="BT12" s="59"/>
+      <c r="BU12" s="59"/>
+      <c r="BV12" s="59"/>
+      <c r="BW12" s="59"/>
+      <c r="BX12" s="59"/>
+      <c r="BY12" s="59"/>
+      <c r="BZ12" s="59"/>
+      <c r="CA12" s="59"/>
+      <c r="CB12" s="59"/>
+      <c r="CC12" s="59"/>
+      <c r="CD12" s="59"/>
+      <c r="CE12" s="59"/>
+      <c r="CF12" s="59"/>
+      <c r="CG12" s="59"/>
+      <c r="CH12" s="59"/>
+      <c r="CI12" s="59"/>
+      <c r="CJ12" s="59"/>
+      <c r="CK12" s="59"/>
+      <c r="CL12" s="59"/>
+      <c r="CM12" s="59"/>
+      <c r="CN12" s="59"/>
+      <c r="CO12" s="59"/>
+      <c r="CP12" s="59"/>
+      <c r="CQ12" s="59"/>
+      <c r="CR12" s="59"/>
+      <c r="CS12" s="60"/>
+    </row>
+    <row r="13" spans="1:97" s="35" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
+      <c r="BL13" s="39"/>
+      <c r="BM13" s="39"/>
+      <c r="BN13" s="39"/>
+      <c r="BO13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP13" s="39"/>
+      <c r="BQ13" s="39"/>
+      <c r="BR13" s="39"/>
+      <c r="BS13" s="39"/>
+      <c r="BT13" s="39"/>
+      <c r="BU13" s="39"/>
+      <c r="BV13" s="39"/>
+      <c r="BW13" s="39"/>
+      <c r="BX13" s="39"/>
+      <c r="BY13" s="39"/>
+      <c r="BZ13" s="39"/>
+      <c r="CA13" s="39"/>
+      <c r="CB13" s="39"/>
+      <c r="CC13" s="39"/>
+      <c r="CD13" s="39"/>
+      <c r="CE13" s="39"/>
+      <c r="CF13" s="39"/>
+      <c r="CG13" s="39"/>
+      <c r="CH13" s="39"/>
+      <c r="CI13" s="39"/>
+      <c r="CJ13" s="39"/>
+      <c r="CK13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="CL13" s="39"/>
+      <c r="CM13" s="39"/>
+      <c r="CN13" s="39"/>
+      <c r="CO13" s="39"/>
+      <c r="CP13" s="39"/>
+      <c r="CQ13" s="39"/>
+      <c r="CR13" s="39"/>
+      <c r="CS13" s="40"/>
+    </row>
+    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="49"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="49"/>
+      <c r="BK14" s="49"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="49"/>
+      <c r="BN14" s="49"/>
+      <c r="BO14" s="49"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="49"/>
+      <c r="BR14" s="49"/>
+      <c r="BS14" s="49"/>
+      <c r="BT14" s="49"/>
+      <c r="BU14" s="49"/>
+      <c r="BV14" s="49"/>
+      <c r="BW14" s="49"/>
+      <c r="BX14" s="49"/>
+      <c r="BY14" s="49"/>
+      <c r="BZ14" s="49"/>
+      <c r="CA14" s="49"/>
+      <c r="CB14" s="49"/>
+      <c r="CC14" s="49"/>
+      <c r="CD14" s="49"/>
+      <c r="CE14" s="49"/>
+      <c r="CF14" s="49"/>
+      <c r="CG14" s="49"/>
+      <c r="CH14" s="49"/>
+      <c r="CI14" s="49"/>
+      <c r="CJ14" s="49"/>
+      <c r="CK14" s="49"/>
+      <c r="CL14" s="49"/>
+      <c r="CM14" s="49"/>
+      <c r="CN14" s="49"/>
+      <c r="CO14" s="49"/>
+      <c r="CP14" s="49"/>
+      <c r="CQ14" s="49"/>
+      <c r="CR14" s="49"/>
+      <c r="CS14" s="52"/>
+    </row>
+    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
+      <c r="BM15" s="50"/>
+      <c r="BN15" s="50"/>
+      <c r="BO15" s="50"/>
+      <c r="BP15" s="50"/>
+      <c r="BQ15" s="50"/>
+      <c r="BR15" s="50"/>
+      <c r="BS15" s="50"/>
+      <c r="BT15" s="50"/>
+      <c r="BU15" s="50"/>
+      <c r="BV15" s="50"/>
+      <c r="BW15" s="50"/>
+      <c r="BX15" s="50"/>
+      <c r="BY15" s="50"/>
+      <c r="BZ15" s="50"/>
+      <c r="CA15" s="50"/>
+      <c r="CB15" s="50"/>
+      <c r="CC15" s="50"/>
+      <c r="CD15" s="50"/>
+      <c r="CE15" s="50"/>
+      <c r="CF15" s="50"/>
+      <c r="CG15" s="50"/>
+      <c r="CH15" s="50"/>
+      <c r="CI15" s="50"/>
+      <c r="CJ15" s="50"/>
+      <c r="CK15" s="50"/>
+      <c r="CL15" s="50"/>
+      <c r="CM15" s="50"/>
+      <c r="CN15" s="50"/>
+      <c r="CO15" s="50"/>
+      <c r="CP15" s="50"/>
+      <c r="CQ15" s="50"/>
+      <c r="CR15" s="50"/>
+      <c r="CS15" s="53"/>
+    </row>
+    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
+      <c r="BM16" s="50"/>
+      <c r="BN16" s="50"/>
+      <c r="BO16" s="50"/>
+      <c r="BP16" s="50"/>
+      <c r="BQ16" s="50"/>
+      <c r="BR16" s="50"/>
+      <c r="BS16" s="50"/>
+      <c r="BT16" s="50"/>
+      <c r="BU16" s="50"/>
+      <c r="BV16" s="50"/>
+      <c r="BW16" s="50"/>
+      <c r="BX16" s="50"/>
+      <c r="BY16" s="50"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="50"/>
+      <c r="CC16" s="50"/>
+      <c r="CD16" s="50"/>
+      <c r="CE16" s="50"/>
+      <c r="CF16" s="50"/>
+      <c r="CG16" s="50"/>
+      <c r="CH16" s="50"/>
+      <c r="CI16" s="50"/>
+      <c r="CJ16" s="50"/>
+      <c r="CK16" s="50"/>
+      <c r="CL16" s="50"/>
+      <c r="CM16" s="50"/>
+      <c r="CN16" s="50"/>
+      <c r="CO16" s="50"/>
+      <c r="CP16" s="50"/>
+      <c r="CQ16" s="50"/>
+      <c r="CR16" s="50"/>
+      <c r="CS16" s="53"/>
+    </row>
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
+      <c r="BM17" s="50"/>
+      <c r="BN17" s="50"/>
+      <c r="BO17" s="50"/>
+      <c r="BP17" s="50"/>
+      <c r="BQ17" s="50"/>
+      <c r="BR17" s="50"/>
+      <c r="BS17" s="50"/>
+      <c r="BT17" s="50"/>
+      <c r="BU17" s="50"/>
+      <c r="BV17" s="50"/>
+      <c r="BW17" s="50"/>
+      <c r="BX17" s="50"/>
+      <c r="BY17" s="50"/>
+      <c r="BZ17" s="50"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="50"/>
+      <c r="CC17" s="50"/>
+      <c r="CD17" s="50"/>
+      <c r="CE17" s="50"/>
+      <c r="CF17" s="50"/>
+      <c r="CG17" s="50"/>
+      <c r="CH17" s="50"/>
+      <c r="CI17" s="50"/>
+      <c r="CJ17" s="50"/>
+      <c r="CK17" s="50"/>
+      <c r="CL17" s="50"/>
+      <c r="CM17" s="50"/>
+      <c r="CN17" s="50"/>
+      <c r="CO17" s="50"/>
+      <c r="CP17" s="50"/>
+      <c r="CQ17" s="50"/>
+      <c r="CR17" s="50"/>
+      <c r="CS17" s="53"/>
+    </row>
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
+      <c r="BQ18" s="50"/>
+      <c r="BR18" s="50"/>
+      <c r="BS18" s="50"/>
+      <c r="BT18" s="50"/>
+      <c r="BU18" s="50"/>
+      <c r="BV18" s="50"/>
+      <c r="BW18" s="50"/>
+      <c r="BX18" s="50"/>
+      <c r="BY18" s="50"/>
+      <c r="BZ18" s="50"/>
+      <c r="CA18" s="50"/>
+      <c r="CB18" s="50"/>
+      <c r="CC18" s="50"/>
+      <c r="CD18" s="50"/>
+      <c r="CE18" s="50"/>
+      <c r="CF18" s="50"/>
+      <c r="CG18" s="50"/>
+      <c r="CH18" s="50"/>
+      <c r="CI18" s="50"/>
+      <c r="CJ18" s="50"/>
+      <c r="CK18" s="50"/>
+      <c r="CL18" s="50"/>
+      <c r="CM18" s="50"/>
+      <c r="CN18" s="50"/>
+      <c r="CO18" s="50"/>
+      <c r="CP18" s="50"/>
+      <c r="CQ18" s="50"/>
+      <c r="CR18" s="50"/>
+      <c r="CS18" s="53"/>
+    </row>
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="50"/>
+      <c r="BL19" s="50"/>
+      <c r="BM19" s="50"/>
+      <c r="BN19" s="50"/>
+      <c r="BO19" s="50"/>
+      <c r="BP19" s="50"/>
+      <c r="BQ19" s="50"/>
+      <c r="BR19" s="50"/>
+      <c r="BS19" s="50"/>
+      <c r="BT19" s="50"/>
+      <c r="BU19" s="50"/>
+      <c r="BV19" s="50"/>
+      <c r="BW19" s="50"/>
+      <c r="BX19" s="50"/>
+      <c r="BY19" s="50"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="50"/>
+      <c r="CC19" s="50"/>
+      <c r="CD19" s="50"/>
+      <c r="CE19" s="50"/>
+      <c r="CF19" s="50"/>
+      <c r="CG19" s="50"/>
+      <c r="CH19" s="50"/>
+      <c r="CI19" s="50"/>
+      <c r="CJ19" s="50"/>
+      <c r="CK19" s="50"/>
+      <c r="CL19" s="50"/>
+      <c r="CM19" s="50"/>
+      <c r="CN19" s="50"/>
+      <c r="CO19" s="50"/>
+      <c r="CP19" s="50"/>
+      <c r="CQ19" s="50"/>
+      <c r="CR19" s="50"/>
+      <c r="CS19" s="53"/>
+    </row>
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+      <c r="BM20" s="50"/>
+      <c r="BN20" s="50"/>
+      <c r="BO20" s="50"/>
+      <c r="BP20" s="50"/>
+      <c r="BQ20" s="50"/>
+      <c r="BR20" s="50"/>
+      <c r="BS20" s="50"/>
+      <c r="BT20" s="50"/>
+      <c r="BU20" s="50"/>
+      <c r="BV20" s="50"/>
+      <c r="BW20" s="50"/>
+      <c r="BX20" s="50"/>
+      <c r="BY20" s="50"/>
+      <c r="BZ20" s="50"/>
+      <c r="CA20" s="50"/>
+      <c r="CB20" s="50"/>
+      <c r="CC20" s="50"/>
+      <c r="CD20" s="50"/>
+      <c r="CE20" s="50"/>
+      <c r="CF20" s="50"/>
+      <c r="CG20" s="50"/>
+      <c r="CH20" s="50"/>
+      <c r="CI20" s="50"/>
+      <c r="CJ20" s="50"/>
+      <c r="CK20" s="50"/>
+      <c r="CL20" s="50"/>
+      <c r="CM20" s="50"/>
+      <c r="CN20" s="50"/>
+      <c r="CO20" s="50"/>
+      <c r="CP20" s="50"/>
+      <c r="CQ20" s="50"/>
+      <c r="CR20" s="50"/>
+      <c r="CS20" s="53"/>
+    </row>
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="50"/>
+      <c r="BE21" s="50"/>
+      <c r="BF21" s="50"/>
+      <c r="BG21" s="50"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="50"/>
+      <c r="BJ21" s="50"/>
+      <c r="BK21" s="50"/>
+      <c r="BL21" s="50"/>
+      <c r="BM21" s="50"/>
+      <c r="BN21" s="50"/>
+      <c r="BO21" s="50"/>
+      <c r="BP21" s="50"/>
+      <c r="BQ21" s="50"/>
+      <c r="BR21" s="50"/>
+      <c r="BS21" s="50"/>
+      <c r="BT21" s="50"/>
+      <c r="BU21" s="50"/>
+      <c r="BV21" s="50"/>
+      <c r="BW21" s="50"/>
+      <c r="BX21" s="50"/>
+      <c r="BY21" s="50"/>
+      <c r="BZ21" s="50"/>
+      <c r="CA21" s="50"/>
+      <c r="CB21" s="50"/>
+      <c r="CC21" s="50"/>
+      <c r="CD21" s="50"/>
+      <c r="CE21" s="50"/>
+      <c r="CF21" s="50"/>
+      <c r="CG21" s="50"/>
+      <c r="CH21" s="50"/>
+      <c r="CI21" s="50"/>
+      <c r="CJ21" s="50"/>
+      <c r="CK21" s="50"/>
+      <c r="CL21" s="50"/>
+      <c r="CM21" s="50"/>
+      <c r="CN21" s="50"/>
+      <c r="CO21" s="50"/>
+      <c r="CP21" s="50"/>
+      <c r="CQ21" s="50"/>
+      <c r="CR21" s="50"/>
+      <c r="CS21" s="53"/>
+    </row>
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="50"/>
+      <c r="BK22" s="50"/>
+      <c r="BL22" s="50"/>
+      <c r="BM22" s="50"/>
+      <c r="BN22" s="50"/>
+      <c r="BO22" s="50"/>
+      <c r="BP22" s="50"/>
+      <c r="BQ22" s="50"/>
+      <c r="BR22" s="50"/>
+      <c r="BS22" s="50"/>
+      <c r="BT22" s="50"/>
+      <c r="BU22" s="50"/>
+      <c r="BV22" s="50"/>
+      <c r="BW22" s="50"/>
+      <c r="BX22" s="50"/>
+      <c r="BY22" s="50"/>
+      <c r="BZ22" s="50"/>
+      <c r="CA22" s="50"/>
+      <c r="CB22" s="50"/>
+      <c r="CC22" s="50"/>
+      <c r="CD22" s="50"/>
+      <c r="CE22" s="50"/>
+      <c r="CF22" s="50"/>
+      <c r="CG22" s="50"/>
+      <c r="CH22" s="50"/>
+      <c r="CI22" s="50"/>
+      <c r="CJ22" s="50"/>
+      <c r="CK22" s="50"/>
+      <c r="CL22" s="50"/>
+      <c r="CM22" s="50"/>
+      <c r="CN22" s="50"/>
+      <c r="CO22" s="50"/>
+      <c r="CP22" s="50"/>
+      <c r="CQ22" s="50"/>
+      <c r="CR22" s="50"/>
+      <c r="CS22" s="53"/>
+    </row>
+    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
+      <c r="BG23" s="74"/>
+      <c r="BH23" s="74"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="74"/>
+      <c r="BL23" s="74"/>
+      <c r="BM23" s="74"/>
+      <c r="BN23" s="74"/>
+      <c r="BO23" s="74"/>
+      <c r="BP23" s="74"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="74"/>
+      <c r="BS23" s="74"/>
+      <c r="BT23" s="74"/>
+      <c r="BU23" s="74"/>
+      <c r="BV23" s="74"/>
+      <c r="BW23" s="74"/>
+      <c r="BX23" s="74"/>
+      <c r="BY23" s="74"/>
+      <c r="BZ23" s="74"/>
+      <c r="CA23" s="74"/>
+      <c r="CB23" s="74"/>
+      <c r="CC23" s="74"/>
+      <c r="CD23" s="74"/>
+      <c r="CE23" s="74"/>
+      <c r="CF23" s="74"/>
+      <c r="CG23" s="74"/>
+      <c r="CH23" s="74"/>
+      <c r="CI23" s="74"/>
+      <c r="CJ23" s="74"/>
+      <c r="CK23" s="74"/>
+      <c r="CL23" s="74"/>
+      <c r="CM23" s="74"/>
+      <c r="CN23" s="74"/>
+      <c r="CO23" s="74"/>
+      <c r="CP23" s="74"/>
+      <c r="CQ23" s="74"/>
+      <c r="CR23" s="74"/>
+      <c r="CS23" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="150">
+    <mergeCell ref="CK22:CS22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:AV23"/>
+    <mergeCell ref="AW23:BD23"/>
+    <mergeCell ref="BE23:BN23"/>
+    <mergeCell ref="BO23:CJ23"/>
+    <mergeCell ref="CK23:CS23"/>
+    <mergeCell ref="BO21:CJ21"/>
+    <mergeCell ref="CK21:CS21"/>
+    <mergeCell ref="CK20:CS20"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:AV22"/>
+    <mergeCell ref="AW22:BD22"/>
+    <mergeCell ref="BE22:BN22"/>
+    <mergeCell ref="BO22:CJ22"/>
+    <mergeCell ref="BO20:CJ20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AA21:AV21"/>
+    <mergeCell ref="AW21:BD21"/>
+    <mergeCell ref="BE21:BN21"/>
+    <mergeCell ref="BO19:CJ19"/>
+    <mergeCell ref="CK19:CS19"/>
+    <mergeCell ref="CK18:CS18"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AA20:AV20"/>
+    <mergeCell ref="AW20:BD20"/>
+    <mergeCell ref="BE20:BN20"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="AA19:AV19"/>
+    <mergeCell ref="AW19:BD19"/>
+    <mergeCell ref="BE19:BN19"/>
+    <mergeCell ref="BO17:CJ17"/>
+    <mergeCell ref="CK17:CS17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AV18"/>
+    <mergeCell ref="AW18:BD18"/>
+    <mergeCell ref="BE18:BN18"/>
+    <mergeCell ref="BO18:CJ18"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AV17"/>
+    <mergeCell ref="AW17:BD17"/>
+    <mergeCell ref="BE17:BN17"/>
+    <mergeCell ref="AV4:BE4"/>
+    <mergeCell ref="AK4:AU4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="K4:AD4"/>
+    <mergeCell ref="CK15:CS15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="AA16:AV16"/>
+    <mergeCell ref="AW16:BD16"/>
+    <mergeCell ref="BE16:BN16"/>
+    <mergeCell ref="BO16:CJ16"/>
+    <mergeCell ref="CK16:CS16"/>
+    <mergeCell ref="BO14:CJ14"/>
+    <mergeCell ref="CK14:CS14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="S15:Z15"/>
+    <mergeCell ref="AA15:AV15"/>
+    <mergeCell ref="AW15:BD15"/>
+    <mergeCell ref="BE15:BN15"/>
+    <mergeCell ref="BO15:CJ15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="AA14:AV14"/>
+    <mergeCell ref="AW14:BD14"/>
+    <mergeCell ref="BE14:BN14"/>
+    <mergeCell ref="BL11:CB11"/>
+    <mergeCell ref="CC11:CS11"/>
+    <mergeCell ref="BL12:CB12"/>
+    <mergeCell ref="CC12:CS12"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="R3:CP3"/>
+    <mergeCell ref="CA4:CP4"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BF4:BP4"/>
+    <mergeCell ref="BL7:CB7"/>
+    <mergeCell ref="BL8:CB8"/>
+    <mergeCell ref="BL9:CB9"/>
+    <mergeCell ref="BL10:CB10"/>
+    <mergeCell ref="CC7:CS7"/>
+    <mergeCell ref="CC8:CS8"/>
+    <mergeCell ref="CC9:CS9"/>
+    <mergeCell ref="CC10:CS10"/>
+    <mergeCell ref="AN11:AY11"/>
+    <mergeCell ref="AN12:AY12"/>
+    <mergeCell ref="AZ11:BC11"/>
+    <mergeCell ref="BD11:BG11"/>
+    <mergeCell ref="BH11:BK11"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BH12:BK12"/>
+    <mergeCell ref="AN7:AY7"/>
+    <mergeCell ref="AN8:AY8"/>
+    <mergeCell ref="AN9:AY9"/>
+    <mergeCell ref="AZ9:BE9"/>
+    <mergeCell ref="BF9:BK9"/>
+    <mergeCell ref="AN10:AY10"/>
+    <mergeCell ref="AZ10:BK10"/>
+    <mergeCell ref="BF7:BK7"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="AZ7:BE7"/>
+    <mergeCell ref="AZ8:BE8"/>
+    <mergeCell ref="T10:AG10"/>
+    <mergeCell ref="T7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AD11:AM11"/>
+    <mergeCell ref="AD12:AM12"/>
+    <mergeCell ref="A7:S12"/>
+    <mergeCell ref="T12:AC12"/>
+    <mergeCell ref="T8:AG8"/>
+    <mergeCell ref="AN6:BK6"/>
+    <mergeCell ref="T6:AM6"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="CC6:CS6"/>
+    <mergeCell ref="T9:AG9"/>
+    <mergeCell ref="AA13:AV13"/>
+    <mergeCell ref="AW13:BD13"/>
+    <mergeCell ref="BE13:BN13"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="BL6:CB6"/>
+    <mergeCell ref="T11:AC11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="BZ1:CS1"/>
+    <mergeCell ref="A1:BY1"/>
+    <mergeCell ref="A2:CS2"/>
+    <mergeCell ref="CK13:CS13"/>
+    <mergeCell ref="BO13:CJ13"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showRuler="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,31 +3581,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -787,7 +3620,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="21" t="s">
@@ -795,259 +3628,278 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>

--- a/templates/account.xlsx
+++ b/templates/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20610" windowHeight="10125"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20610" windowHeight="10125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лицевой счет" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Дата</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Кол-во лиц для нач. платежа за воду</t>
+  </si>
+  <si>
+    <t>ул. Ленина</t>
   </si>
 </sst>
 </file>
@@ -724,9 +727,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -769,6 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,6 +820,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -807,81 +885,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL7" sqref="BL7:CB7"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO17" sqref="BO17:CJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,99 +1398,99 @@
       <c r="CS2" s="22"/>
     </row>
     <row r="3" spans="1:97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46"/>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46"/>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="46"/>
+      <c r="CG3" s="46"/>
+      <c r="CH3" s="46"/>
+      <c r="CI3" s="46"/>
+      <c r="CJ3" s="46"/>
+      <c r="CK3" s="46"/>
+      <c r="CL3" s="46"/>
+      <c r="CM3" s="46"/>
+      <c r="CN3" s="46"/>
+      <c r="CO3" s="46"/>
+      <c r="CP3" s="46"/>
     </row>
     <row r="4" spans="1:97" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="21" t="s">
@@ -1499,7 +1502,9 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -1519,76 +1524,78 @@
       <c r="AB4" s="20"/>
       <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="36" t="s">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="47">
+        <v>11</v>
+      </c>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="36" t="s">
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48"/>
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="47"/>
+      <c r="CG4" s="47"/>
+      <c r="CH4" s="47"/>
+      <c r="CI4" s="47"/>
+      <c r="CJ4" s="47"/>
+      <c r="CK4" s="47"/>
+      <c r="CL4" s="47"/>
+      <c r="CM4" s="47"/>
+      <c r="CN4" s="47"/>
+      <c r="CO4" s="47"/>
+      <c r="CP4" s="47"/>
     </row>
     <row r="5" spans="1:97" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:97" s="18" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1701,25 +1708,25 @@
       <c r="CS6" s="24"/>
     </row>
     <row r="7" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="73"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
       <c r="T7" s="33" t="s">
         <v>44</v>
       </c>
@@ -1742,87 +1749,87 @@
       <c r="AK7" s="28"/>
       <c r="AL7" s="28"/>
       <c r="AM7" s="28"/>
-      <c r="AN7" s="43" t="s">
+      <c r="AN7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="37"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="37"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="37"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="37"/>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="37"/>
-      <c r="CG7" s="37"/>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
-      <c r="CL7" s="37"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="37"/>
-      <c r="CO7" s="37"/>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="42"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="65"/>
+      <c r="BB7" s="65"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="65"/>
+      <c r="BE7" s="65"/>
+      <c r="BF7" s="65"/>
+      <c r="BG7" s="65"/>
+      <c r="BH7" s="65"/>
+      <c r="BI7" s="65"/>
+      <c r="BJ7" s="65"/>
+      <c r="BK7" s="65"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="49"/>
+      <c r="BV7" s="49"/>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="49"/>
+      <c r="CD7" s="49"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="49"/>
+      <c r="CG7" s="49"/>
+      <c r="CH7" s="49"/>
+      <c r="CI7" s="49"/>
+      <c r="CJ7" s="49"/>
+      <c r="CK7" s="49"/>
+      <c r="CL7" s="49"/>
+      <c r="CM7" s="49"/>
+      <c r="CN7" s="49"/>
+      <c r="CO7" s="49"/>
+      <c r="CP7" s="49"/>
+      <c r="CQ7" s="49"/>
+      <c r="CR7" s="49"/>
+      <c r="CS7" s="54"/>
     </row>
     <row r="8" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="33" t="s">
         <v>45</v>
       </c>
@@ -1845,91 +1852,91 @@
       <c r="AK8" s="28"/>
       <c r="AL8" s="28"/>
       <c r="AM8" s="28"/>
-      <c r="AN8" s="39" t="s">
+      <c r="AN8" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="83"/>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="83"/>
-      <c r="BG8" s="83"/>
-      <c r="BH8" s="83"/>
-      <c r="BI8" s="83"/>
-      <c r="BJ8" s="83"/>
-      <c r="BK8" s="83"/>
-      <c r="BL8" s="38" t="s">
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="52"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="66"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="66"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BM8" s="38"/>
-      <c r="BN8" s="38"/>
-      <c r="BO8" s="38"/>
-      <c r="BP8" s="38"/>
-      <c r="BQ8" s="38"/>
-      <c r="BR8" s="38"/>
-      <c r="BS8" s="38"/>
-      <c r="BT8" s="38"/>
-      <c r="BU8" s="38"/>
-      <c r="BV8" s="38"/>
-      <c r="BW8" s="38"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="38"/>
-      <c r="CC8" s="38" t="s">
+      <c r="BM8" s="50"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="50"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="50"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="50"/>
+      <c r="CA8" s="50"/>
+      <c r="CB8" s="50"/>
+      <c r="CC8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="CD8" s="38"/>
-      <c r="CE8" s="38"/>
-      <c r="CF8" s="38"/>
-      <c r="CG8" s="38"/>
-      <c r="CH8" s="38"/>
-      <c r="CI8" s="38"/>
-      <c r="CJ8" s="38"/>
-      <c r="CK8" s="38"/>
-      <c r="CL8" s="38"/>
-      <c r="CM8" s="38"/>
-      <c r="CN8" s="38"/>
-      <c r="CO8" s="38"/>
-      <c r="CP8" s="38"/>
-      <c r="CQ8" s="38"/>
-      <c r="CR8" s="38"/>
-      <c r="CS8" s="39"/>
+      <c r="CD8" s="50"/>
+      <c r="CE8" s="50"/>
+      <c r="CF8" s="50"/>
+      <c r="CG8" s="50"/>
+      <c r="CH8" s="50"/>
+      <c r="CI8" s="50"/>
+      <c r="CJ8" s="50"/>
+      <c r="CK8" s="50"/>
+      <c r="CL8" s="50"/>
+      <c r="CM8" s="50"/>
+      <c r="CN8" s="50"/>
+      <c r="CO8" s="50"/>
+      <c r="CP8" s="50"/>
+      <c r="CQ8" s="50"/>
+      <c r="CR8" s="50"/>
+      <c r="CS8" s="51"/>
     </row>
     <row r="9" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="75"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="39"/>
       <c r="T9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1946,93 +1953,93 @@
       <c r="AE9" s="26"/>
       <c r="AF9" s="26"/>
       <c r="AG9" s="26"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="81"/>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="46" t="s">
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="66"/>
-      <c r="BA9" s="66"/>
-      <c r="BB9" s="66"/>
-      <c r="BC9" s="66"/>
-      <c r="BD9" s="66"/>
-      <c r="BE9" s="66"/>
-      <c r="BF9" s="66"/>
-      <c r="BG9" s="66"/>
-      <c r="BH9" s="66"/>
-      <c r="BI9" s="66"/>
-      <c r="BJ9" s="66"/>
-      <c r="BK9" s="66"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38"/>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38"/>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38"/>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="38"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="39"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="61"/>
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="50"/>
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="50"/>
+      <c r="BU9" s="50"/>
+      <c r="BV9" s="50"/>
+      <c r="BW9" s="50"/>
+      <c r="BX9" s="50"/>
+      <c r="BY9" s="50"/>
+      <c r="BZ9" s="50"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="50"/>
+      <c r="CE9" s="50"/>
+      <c r="CF9" s="50"/>
+      <c r="CG9" s="50"/>
+      <c r="CH9" s="50"/>
+      <c r="CI9" s="50"/>
+      <c r="CJ9" s="50"/>
+      <c r="CK9" s="50"/>
+      <c r="CL9" s="50"/>
+      <c r="CM9" s="50"/>
+      <c r="CN9" s="50"/>
+      <c r="CO9" s="50"/>
+      <c r="CP9" s="50"/>
+      <c r="CQ9" s="50"/>
+      <c r="CR9" s="50"/>
+      <c r="CS9" s="51"/>
     </row>
     <row r="10" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="75"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
       <c r="T10" s="31" t="s">
         <v>47</v>
       </c>
@@ -2049,97 +2056,97 @@
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="46" t="s">
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="47"/>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="49" t="s">
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="39" t="s">
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="63"/>
+      <c r="BG10" s="63"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="63"/>
+      <c r="BJ10" s="63"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="BM10" s="40"/>
-      <c r="BN10" s="40"/>
-      <c r="BO10" s="40"/>
-      <c r="BP10" s="40"/>
-      <c r="BQ10" s="40"/>
-      <c r="BR10" s="40"/>
-      <c r="BS10" s="40"/>
-      <c r="BT10" s="40"/>
-      <c r="BU10" s="40"/>
-      <c r="BV10" s="40"/>
-      <c r="BW10" s="40"/>
-      <c r="BX10" s="40"/>
-      <c r="BY10" s="40"/>
-      <c r="BZ10" s="40"/>
-      <c r="CA10" s="40"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="38"/>
-      <c r="CD10" s="38"/>
-      <c r="CE10" s="38"/>
-      <c r="CF10" s="38"/>
-      <c r="CG10" s="38"/>
-      <c r="CH10" s="38"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
-      <c r="CL10" s="38"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="38"/>
-      <c r="CP10" s="38"/>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="38"/>
-      <c r="CS10" s="39"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="52"/>
+      <c r="BP10" s="52"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="52"/>
+      <c r="BS10" s="52"/>
+      <c r="BT10" s="52"/>
+      <c r="BU10" s="52"/>
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="52"/>
+      <c r="BX10" s="52"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="53"/>
+      <c r="CC10" s="50"/>
+      <c r="CD10" s="50"/>
+      <c r="CE10" s="50"/>
+      <c r="CF10" s="50"/>
+      <c r="CG10" s="50"/>
+      <c r="CH10" s="50"/>
+      <c r="CI10" s="50"/>
+      <c r="CJ10" s="50"/>
+      <c r="CK10" s="50"/>
+      <c r="CL10" s="50"/>
+      <c r="CM10" s="50"/>
+      <c r="CN10" s="50"/>
+      <c r="CO10" s="50"/>
+      <c r="CP10" s="50"/>
+      <c r="CQ10" s="50"/>
+      <c r="CR10" s="50"/>
+      <c r="CS10" s="51"/>
     </row>
     <row r="11" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="75"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="39"/>
       <c r="T11" s="28" t="s">
         <v>48</v>
       </c>
@@ -2164,163 +2171,163 @@
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
       <c r="AM11" s="28"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
-      <c r="BA11" s="66"/>
-      <c r="BB11" s="66"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="66"/>
-      <c r="BE11" s="66"/>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="66"/>
-      <c r="BI11" s="66"/>
-      <c r="BJ11" s="66"/>
-      <c r="BK11" s="66"/>
-      <c r="BL11" s="39"/>
-      <c r="BM11" s="40"/>
-      <c r="BN11" s="40"/>
-      <c r="BO11" s="40"/>
-      <c r="BP11" s="40"/>
-      <c r="BQ11" s="40"/>
-      <c r="BR11" s="40"/>
-      <c r="BS11" s="40"/>
-      <c r="BT11" s="40"/>
-      <c r="BU11" s="40"/>
-      <c r="BV11" s="40"/>
-      <c r="BW11" s="40"/>
-      <c r="BX11" s="40"/>
-      <c r="BY11" s="40"/>
-      <c r="BZ11" s="40"/>
-      <c r="CA11" s="40"/>
-      <c r="CB11" s="41"/>
-      <c r="CC11" s="38"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="38"/>
-      <c r="CF11" s="38"/>
-      <c r="CG11" s="38"/>
-      <c r="CH11" s="38"/>
-      <c r="CI11" s="38"/>
-      <c r="CJ11" s="38"/>
-      <c r="CK11" s="38"/>
-      <c r="CL11" s="38"/>
-      <c r="CM11" s="38"/>
-      <c r="CN11" s="38"/>
-      <c r="CO11" s="38"/>
-      <c r="CP11" s="38"/>
-      <c r="CQ11" s="38"/>
-      <c r="CR11" s="38"/>
-      <c r="CS11" s="39"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="61"/>
+      <c r="BJ11" s="61"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
+      <c r="BO11" s="52"/>
+      <c r="BP11" s="52"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52"/>
+      <c r="BS11" s="52"/>
+      <c r="BT11" s="52"/>
+      <c r="BU11" s="52"/>
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="52"/>
+      <c r="BX11" s="52"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="53"/>
+      <c r="CC11" s="50"/>
+      <c r="CD11" s="50"/>
+      <c r="CE11" s="50"/>
+      <c r="CF11" s="50"/>
+      <c r="CG11" s="50"/>
+      <c r="CH11" s="50"/>
+      <c r="CI11" s="50"/>
+      <c r="CJ11" s="50"/>
+      <c r="CK11" s="50"/>
+      <c r="CL11" s="50"/>
+      <c r="CM11" s="50"/>
+      <c r="CN11" s="50"/>
+      <c r="CO11" s="50"/>
+      <c r="CP11" s="50"/>
+      <c r="CQ11" s="50"/>
+      <c r="CR11" s="50"/>
+      <c r="CS11" s="51"/>
     </row>
     <row r="12" spans="1:97" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="80"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="85"/>
-      <c r="BM12" s="85"/>
-      <c r="BN12" s="85"/>
-      <c r="BO12" s="85"/>
-      <c r="BP12" s="85"/>
-      <c r="BQ12" s="85"/>
-      <c r="BR12" s="85"/>
-      <c r="BS12" s="85"/>
-      <c r="BT12" s="85"/>
-      <c r="BU12" s="85"/>
-      <c r="BV12" s="85"/>
-      <c r="BW12" s="85"/>
-      <c r="BX12" s="85"/>
-      <c r="BY12" s="85"/>
-      <c r="BZ12" s="85"/>
-      <c r="CA12" s="85"/>
-      <c r="CB12" s="85"/>
-      <c r="CC12" s="85"/>
-      <c r="CD12" s="85"/>
-      <c r="CE12" s="85"/>
-      <c r="CF12" s="85"/>
-      <c r="CG12" s="85"/>
-      <c r="CH12" s="85"/>
-      <c r="CI12" s="85"/>
-      <c r="CJ12" s="85"/>
-      <c r="CK12" s="85"/>
-      <c r="CL12" s="85"/>
-      <c r="CM12" s="85"/>
-      <c r="CN12" s="85"/>
-      <c r="CO12" s="85"/>
-      <c r="CP12" s="85"/>
-      <c r="CQ12" s="85"/>
-      <c r="CR12" s="85"/>
-      <c r="CS12" s="86"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="70"/>
+      <c r="BH12" s="70"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="70"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
+      <c r="BP12" s="68"/>
+      <c r="BQ12" s="68"/>
+      <c r="BR12" s="68"/>
+      <c r="BS12" s="68"/>
+      <c r="BT12" s="68"/>
+      <c r="BU12" s="68"/>
+      <c r="BV12" s="68"/>
+      <c r="BW12" s="68"/>
+      <c r="BX12" s="68"/>
+      <c r="BY12" s="68"/>
+      <c r="BZ12" s="68"/>
+      <c r="CA12" s="68"/>
+      <c r="CB12" s="68"/>
+      <c r="CC12" s="68"/>
+      <c r="CD12" s="68"/>
+      <c r="CE12" s="68"/>
+      <c r="CF12" s="68"/>
+      <c r="CG12" s="68"/>
+      <c r="CH12" s="68"/>
+      <c r="CI12" s="68"/>
+      <c r="CJ12" s="68"/>
+      <c r="CK12" s="68"/>
+      <c r="CL12" s="68"/>
+      <c r="CM12" s="68"/>
+      <c r="CN12" s="68"/>
+      <c r="CO12" s="68"/>
+      <c r="CP12" s="68"/>
+      <c r="CQ12" s="68"/>
+      <c r="CR12" s="68"/>
+      <c r="CS12" s="69"/>
     </row>
     <row r="13" spans="1:97" s="18" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
@@ -2438,997 +2445,999 @@
       <c r="CS13" s="24"/>
     </row>
     <row r="14" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="63"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="63"/>
-      <c r="BC14" s="63"/>
-      <c r="BD14" s="63"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="64"/>
-      <c r="BR14" s="64"/>
-      <c r="BS14" s="64"/>
-      <c r="BT14" s="64"/>
-      <c r="BU14" s="64"/>
-      <c r="BV14" s="64"/>
-      <c r="BW14" s="64"/>
-      <c r="BX14" s="64"/>
-      <c r="BY14" s="64"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="64"/>
-      <c r="CB14" s="64"/>
-      <c r="CC14" s="64"/>
-      <c r="CD14" s="64"/>
-      <c r="CE14" s="64"/>
-      <c r="CF14" s="64"/>
-      <c r="CG14" s="64"/>
-      <c r="CH14" s="64"/>
-      <c r="CI14" s="64"/>
-      <c r="CJ14" s="64"/>
-      <c r="CK14" s="64"/>
-      <c r="CL14" s="64"/>
-      <c r="CM14" s="64"/>
-      <c r="CN14" s="64"/>
-      <c r="CO14" s="64"/>
-      <c r="CP14" s="64"/>
-      <c r="CQ14" s="64"/>
-      <c r="CR14" s="64"/>
-      <c r="CS14" s="65"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="65"/>
+      <c r="BC14" s="65"/>
+      <c r="BD14" s="65"/>
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="67"/>
+      <c r="BH14" s="67"/>
+      <c r="BI14" s="67"/>
+      <c r="BJ14" s="67"/>
+      <c r="BK14" s="67"/>
+      <c r="BL14" s="67"/>
+      <c r="BM14" s="67"/>
+      <c r="BN14" s="67"/>
+      <c r="BO14" s="67"/>
+      <c r="BP14" s="67"/>
+      <c r="BQ14" s="67"/>
+      <c r="BR14" s="67"/>
+      <c r="BS14" s="67"/>
+      <c r="BT14" s="67"/>
+      <c r="BU14" s="67"/>
+      <c r="BV14" s="67"/>
+      <c r="BW14" s="67"/>
+      <c r="BX14" s="67"/>
+      <c r="BY14" s="67"/>
+      <c r="BZ14" s="67"/>
+      <c r="CA14" s="67"/>
+      <c r="CB14" s="67"/>
+      <c r="CC14" s="67"/>
+      <c r="CD14" s="67"/>
+      <c r="CE14" s="67"/>
+      <c r="CF14" s="67"/>
+      <c r="CG14" s="67"/>
+      <c r="CH14" s="67"/>
+      <c r="CI14" s="67"/>
+      <c r="CJ14" s="67"/>
+      <c r="CK14" s="67"/>
+      <c r="CL14" s="67"/>
+      <c r="CM14" s="67"/>
+      <c r="CN14" s="67"/>
+      <c r="CO14" s="67"/>
+      <c r="CP14" s="67"/>
+      <c r="CQ14" s="67"/>
+      <c r="CR14" s="67"/>
+      <c r="CS14" s="72"/>
     </row>
     <row r="15" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="67"/>
-      <c r="BH15" s="67"/>
-      <c r="BI15" s="67"/>
-      <c r="BJ15" s="67"/>
-      <c r="BK15" s="67"/>
-      <c r="BL15" s="67"/>
-      <c r="BM15" s="67"/>
-      <c r="BN15" s="67"/>
-      <c r="BO15" s="67"/>
-      <c r="BP15" s="67"/>
-      <c r="BQ15" s="67"/>
-      <c r="BR15" s="67"/>
-      <c r="BS15" s="67"/>
-      <c r="BT15" s="67"/>
-      <c r="BU15" s="67"/>
-      <c r="BV15" s="67"/>
-      <c r="BW15" s="67"/>
-      <c r="BX15" s="67"/>
-      <c r="BY15" s="67"/>
-      <c r="BZ15" s="67"/>
-      <c r="CA15" s="67"/>
-      <c r="CB15" s="67"/>
-      <c r="CC15" s="67"/>
-      <c r="CD15" s="67"/>
-      <c r="CE15" s="67"/>
-      <c r="CF15" s="67"/>
-      <c r="CG15" s="67"/>
-      <c r="CH15" s="67"/>
-      <c r="CI15" s="67"/>
-      <c r="CJ15" s="67"/>
-      <c r="CK15" s="67"/>
-      <c r="CL15" s="67"/>
-      <c r="CM15" s="67"/>
-      <c r="CN15" s="67"/>
-      <c r="CO15" s="67"/>
-      <c r="CP15" s="67"/>
-      <c r="CQ15" s="67"/>
-      <c r="CR15" s="67"/>
-      <c r="CS15" s="46"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="71"/>
+      <c r="BF15" s="71"/>
+      <c r="BG15" s="71"/>
+      <c r="BH15" s="71"/>
+      <c r="BI15" s="71"/>
+      <c r="BJ15" s="71"/>
+      <c r="BK15" s="71"/>
+      <c r="BL15" s="71"/>
+      <c r="BM15" s="71"/>
+      <c r="BN15" s="71"/>
+      <c r="BO15" s="71"/>
+      <c r="BP15" s="71"/>
+      <c r="BQ15" s="71"/>
+      <c r="BR15" s="71"/>
+      <c r="BS15" s="71"/>
+      <c r="BT15" s="71"/>
+      <c r="BU15" s="71"/>
+      <c r="BV15" s="71"/>
+      <c r="BW15" s="71"/>
+      <c r="BX15" s="71"/>
+      <c r="BY15" s="71"/>
+      <c r="BZ15" s="71"/>
+      <c r="CA15" s="71"/>
+      <c r="CB15" s="71"/>
+      <c r="CC15" s="71"/>
+      <c r="CD15" s="71"/>
+      <c r="CE15" s="71"/>
+      <c r="CF15" s="71"/>
+      <c r="CG15" s="71"/>
+      <c r="CH15" s="71"/>
+      <c r="CI15" s="71"/>
+      <c r="CJ15" s="71"/>
+      <c r="CK15" s="71"/>
+      <c r="CL15" s="71"/>
+      <c r="CM15" s="71"/>
+      <c r="CN15" s="71"/>
+      <c r="CO15" s="71"/>
+      <c r="CP15" s="71"/>
+      <c r="CQ15" s="71"/>
+      <c r="CR15" s="71"/>
+      <c r="CS15" s="58"/>
     </row>
     <row r="16" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
-      <c r="BA16" s="66"/>
-      <c r="BB16" s="66"/>
-      <c r="BC16" s="66"/>
-      <c r="BD16" s="66"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="67"/>
-      <c r="BI16" s="67"/>
-      <c r="BJ16" s="67"/>
-      <c r="BK16" s="67"/>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="67"/>
-      <c r="BN16" s="67"/>
-      <c r="BO16" s="67"/>
-      <c r="BP16" s="67"/>
-      <c r="BQ16" s="67"/>
-      <c r="BR16" s="67"/>
-      <c r="BS16" s="67"/>
-      <c r="BT16" s="67"/>
-      <c r="BU16" s="67"/>
-      <c r="BV16" s="67"/>
-      <c r="BW16" s="67"/>
-      <c r="BX16" s="67"/>
-      <c r="BY16" s="67"/>
-      <c r="BZ16" s="67"/>
-      <c r="CA16" s="67"/>
-      <c r="CB16" s="67"/>
-      <c r="CC16" s="67"/>
-      <c r="CD16" s="67"/>
-      <c r="CE16" s="67"/>
-      <c r="CF16" s="67"/>
-      <c r="CG16" s="67"/>
-      <c r="CH16" s="67"/>
-      <c r="CI16" s="67"/>
-      <c r="CJ16" s="67"/>
-      <c r="CK16" s="67"/>
-      <c r="CL16" s="67"/>
-      <c r="CM16" s="67"/>
-      <c r="CN16" s="67"/>
-      <c r="CO16" s="67"/>
-      <c r="CP16" s="67"/>
-      <c r="CQ16" s="67"/>
-      <c r="CR16" s="67"/>
-      <c r="CS16" s="46"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="71"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="71"/>
+      <c r="BM16" s="71"/>
+      <c r="BN16" s="71"/>
+      <c r="BO16" s="71"/>
+      <c r="BP16" s="71"/>
+      <c r="BQ16" s="71"/>
+      <c r="BR16" s="71"/>
+      <c r="BS16" s="71"/>
+      <c r="BT16" s="71"/>
+      <c r="BU16" s="71"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="71"/>
+      <c r="BX16" s="71"/>
+      <c r="BY16" s="71"/>
+      <c r="BZ16" s="71"/>
+      <c r="CA16" s="71"/>
+      <c r="CB16" s="71"/>
+      <c r="CC16" s="71"/>
+      <c r="CD16" s="71"/>
+      <c r="CE16" s="71"/>
+      <c r="CF16" s="71"/>
+      <c r="CG16" s="71"/>
+      <c r="CH16" s="71"/>
+      <c r="CI16" s="71"/>
+      <c r="CJ16" s="71"/>
+      <c r="CK16" s="71"/>
+      <c r="CL16" s="71"/>
+      <c r="CM16" s="71"/>
+      <c r="CN16" s="71"/>
+      <c r="CO16" s="71"/>
+      <c r="CP16" s="71"/>
+      <c r="CQ16" s="71"/>
+      <c r="CR16" s="71"/>
+      <c r="CS16" s="58"/>
     </row>
     <row r="17" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="67"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="67"/>
-      <c r="AQ17" s="67"/>
-      <c r="AR17" s="67"/>
-      <c r="AS17" s="67"/>
-      <c r="AT17" s="67"/>
-      <c r="AU17" s="67"/>
-      <c r="AV17" s="67"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="66"/>
-      <c r="BB17" s="66"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="67"/>
-      <c r="BH17" s="67"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="67"/>
-      <c r="BK17" s="67"/>
-      <c r="BL17" s="67"/>
-      <c r="BM17" s="67"/>
-      <c r="BN17" s="67"/>
-      <c r="BO17" s="67"/>
-      <c r="BP17" s="67"/>
-      <c r="BQ17" s="67"/>
-      <c r="BR17" s="67"/>
-      <c r="BS17" s="67"/>
-      <c r="BT17" s="67"/>
-      <c r="BU17" s="67"/>
-      <c r="BV17" s="67"/>
-      <c r="BW17" s="67"/>
-      <c r="BX17" s="67"/>
-      <c r="BY17" s="67"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="67"/>
-      <c r="CB17" s="67"/>
-      <c r="CC17" s="67"/>
-      <c r="CD17" s="67"/>
-      <c r="CE17" s="67"/>
-      <c r="CF17" s="67"/>
-      <c r="CG17" s="67"/>
-      <c r="CH17" s="67"/>
-      <c r="CI17" s="67"/>
-      <c r="CJ17" s="67"/>
-      <c r="CK17" s="67"/>
-      <c r="CL17" s="67"/>
-      <c r="CM17" s="67"/>
-      <c r="CN17" s="67"/>
-      <c r="CO17" s="67"/>
-      <c r="CP17" s="67"/>
-      <c r="CQ17" s="67"/>
-      <c r="CR17" s="67"/>
-      <c r="CS17" s="46"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="71"/>
+      <c r="BG17" s="71"/>
+      <c r="BH17" s="71"/>
+      <c r="BI17" s="71"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
+      <c r="BL17" s="71"/>
+      <c r="BM17" s="71"/>
+      <c r="BN17" s="71"/>
+      <c r="BO17" s="71"/>
+      <c r="BP17" s="71"/>
+      <c r="BQ17" s="71"/>
+      <c r="BR17" s="71"/>
+      <c r="BS17" s="71"/>
+      <c r="BT17" s="71"/>
+      <c r="BU17" s="71"/>
+      <c r="BV17" s="71"/>
+      <c r="BW17" s="71"/>
+      <c r="BX17" s="71"/>
+      <c r="BY17" s="71"/>
+      <c r="BZ17" s="71"/>
+      <c r="CA17" s="71"/>
+      <c r="CB17" s="71"/>
+      <c r="CC17" s="71"/>
+      <c r="CD17" s="71"/>
+      <c r="CE17" s="71"/>
+      <c r="CF17" s="71"/>
+      <c r="CG17" s="71"/>
+      <c r="CH17" s="71"/>
+      <c r="CI17" s="71"/>
+      <c r="CJ17" s="71"/>
+      <c r="CK17" s="71"/>
+      <c r="CL17" s="71"/>
+      <c r="CM17" s="71"/>
+      <c r="CN17" s="71"/>
+      <c r="CO17" s="71"/>
+      <c r="CP17" s="71"/>
+      <c r="CQ17" s="71"/>
+      <c r="CR17" s="71"/>
+      <c r="CS17" s="58"/>
     </row>
     <row r="18" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="67"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
-      <c r="BA18" s="66"/>
-      <c r="BB18" s="66"/>
-      <c r="BC18" s="66"/>
-      <c r="BD18" s="66"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="67"/>
-      <c r="BG18" s="67"/>
-      <c r="BH18" s="67"/>
-      <c r="BI18" s="67"/>
-      <c r="BJ18" s="67"/>
-      <c r="BK18" s="67"/>
-      <c r="BL18" s="67"/>
-      <c r="BM18" s="67"/>
-      <c r="BN18" s="67"/>
-      <c r="BO18" s="67"/>
-      <c r="BP18" s="67"/>
-      <c r="BQ18" s="67"/>
-      <c r="BR18" s="67"/>
-      <c r="BS18" s="67"/>
-      <c r="BT18" s="67"/>
-      <c r="BU18" s="67"/>
-      <c r="BV18" s="67"/>
-      <c r="BW18" s="67"/>
-      <c r="BX18" s="67"/>
-      <c r="BY18" s="67"/>
-      <c r="BZ18" s="67"/>
-      <c r="CA18" s="67"/>
-      <c r="CB18" s="67"/>
-      <c r="CC18" s="67"/>
-      <c r="CD18" s="67"/>
-      <c r="CE18" s="67"/>
-      <c r="CF18" s="67"/>
-      <c r="CG18" s="67"/>
-      <c r="CH18" s="67"/>
-      <c r="CI18" s="67"/>
-      <c r="CJ18" s="67"/>
-      <c r="CK18" s="67"/>
-      <c r="CL18" s="67"/>
-      <c r="CM18" s="67"/>
-      <c r="CN18" s="67"/>
-      <c r="CO18" s="67"/>
-      <c r="CP18" s="67"/>
-      <c r="CQ18" s="67"/>
-      <c r="CR18" s="67"/>
-      <c r="CS18" s="46"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="71"/>
+      <c r="BF18" s="71"/>
+      <c r="BG18" s="71"/>
+      <c r="BH18" s="71"/>
+      <c r="BI18" s="71"/>
+      <c r="BJ18" s="71"/>
+      <c r="BK18" s="71"/>
+      <c r="BL18" s="71"/>
+      <c r="BM18" s="71"/>
+      <c r="BN18" s="71"/>
+      <c r="BO18" s="71"/>
+      <c r="BP18" s="71"/>
+      <c r="BQ18" s="71"/>
+      <c r="BR18" s="71"/>
+      <c r="BS18" s="71"/>
+      <c r="BT18" s="71"/>
+      <c r="BU18" s="71"/>
+      <c r="BV18" s="71"/>
+      <c r="BW18" s="71"/>
+      <c r="BX18" s="71"/>
+      <c r="BY18" s="71"/>
+      <c r="BZ18" s="71"/>
+      <c r="CA18" s="71"/>
+      <c r="CB18" s="71"/>
+      <c r="CC18" s="71"/>
+      <c r="CD18" s="71"/>
+      <c r="CE18" s="71"/>
+      <c r="CF18" s="71"/>
+      <c r="CG18" s="71"/>
+      <c r="CH18" s="71"/>
+      <c r="CI18" s="71"/>
+      <c r="CJ18" s="71"/>
+      <c r="CK18" s="71"/>
+      <c r="CL18" s="71"/>
+      <c r="CM18" s="71"/>
+      <c r="CN18" s="71"/>
+      <c r="CO18" s="71"/>
+      <c r="CP18" s="71"/>
+      <c r="CQ18" s="71"/>
+      <c r="CR18" s="71"/>
+      <c r="CS18" s="58"/>
     </row>
     <row r="19" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="67"/>
-      <c r="BG19" s="67"/>
-      <c r="BH19" s="67"/>
-      <c r="BI19" s="67"/>
-      <c r="BJ19" s="67"/>
-      <c r="BK19" s="67"/>
-      <c r="BL19" s="67"/>
-      <c r="BM19" s="67"/>
-      <c r="BN19" s="67"/>
-      <c r="BO19" s="67"/>
-      <c r="BP19" s="67"/>
-      <c r="BQ19" s="67"/>
-      <c r="BR19" s="67"/>
-      <c r="BS19" s="67"/>
-      <c r="BT19" s="67"/>
-      <c r="BU19" s="67"/>
-      <c r="BV19" s="67"/>
-      <c r="BW19" s="67"/>
-      <c r="BX19" s="67"/>
-      <c r="BY19" s="67"/>
-      <c r="BZ19" s="67"/>
-      <c r="CA19" s="67"/>
-      <c r="CB19" s="67"/>
-      <c r="CC19" s="67"/>
-      <c r="CD19" s="67"/>
-      <c r="CE19" s="67"/>
-      <c r="CF19" s="67"/>
-      <c r="CG19" s="67"/>
-      <c r="CH19" s="67"/>
-      <c r="CI19" s="67"/>
-      <c r="CJ19" s="67"/>
-      <c r="CK19" s="67"/>
-      <c r="CL19" s="67"/>
-      <c r="CM19" s="67"/>
-      <c r="CN19" s="67"/>
-      <c r="CO19" s="67"/>
-      <c r="CP19" s="67"/>
-      <c r="CQ19" s="67"/>
-      <c r="CR19" s="67"/>
-      <c r="CS19" s="46"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="71"/>
+      <c r="BF19" s="71"/>
+      <c r="BG19" s="71"/>
+      <c r="BH19" s="71"/>
+      <c r="BI19" s="71"/>
+      <c r="BJ19" s="71"/>
+      <c r="BK19" s="71"/>
+      <c r="BL19" s="71"/>
+      <c r="BM19" s="71"/>
+      <c r="BN19" s="71"/>
+      <c r="BO19" s="71"/>
+      <c r="BP19" s="71"/>
+      <c r="BQ19" s="71"/>
+      <c r="BR19" s="71"/>
+      <c r="BS19" s="71"/>
+      <c r="BT19" s="71"/>
+      <c r="BU19" s="71"/>
+      <c r="BV19" s="71"/>
+      <c r="BW19" s="71"/>
+      <c r="BX19" s="71"/>
+      <c r="BY19" s="71"/>
+      <c r="BZ19" s="71"/>
+      <c r="CA19" s="71"/>
+      <c r="CB19" s="71"/>
+      <c r="CC19" s="71"/>
+      <c r="CD19" s="71"/>
+      <c r="CE19" s="71"/>
+      <c r="CF19" s="71"/>
+      <c r="CG19" s="71"/>
+      <c r="CH19" s="71"/>
+      <c r="CI19" s="71"/>
+      <c r="CJ19" s="71"/>
+      <c r="CK19" s="71"/>
+      <c r="CL19" s="71"/>
+      <c r="CM19" s="71"/>
+      <c r="CN19" s="71"/>
+      <c r="CO19" s="71"/>
+      <c r="CP19" s="71"/>
+      <c r="CQ19" s="71"/>
+      <c r="CR19" s="71"/>
+      <c r="CS19" s="58"/>
     </row>
     <row r="20" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="67"/>
-      <c r="BG20" s="67"/>
-      <c r="BH20" s="67"/>
-      <c r="BI20" s="67"/>
-      <c r="BJ20" s="67"/>
-      <c r="BK20" s="67"/>
-      <c r="BL20" s="67"/>
-      <c r="BM20" s="67"/>
-      <c r="BN20" s="67"/>
-      <c r="BO20" s="67"/>
-      <c r="BP20" s="67"/>
-      <c r="BQ20" s="67"/>
-      <c r="BR20" s="67"/>
-      <c r="BS20" s="67"/>
-      <c r="BT20" s="67"/>
-      <c r="BU20" s="67"/>
-      <c r="BV20" s="67"/>
-      <c r="BW20" s="67"/>
-      <c r="BX20" s="67"/>
-      <c r="BY20" s="67"/>
-      <c r="BZ20" s="67"/>
-      <c r="CA20" s="67"/>
-      <c r="CB20" s="67"/>
-      <c r="CC20" s="67"/>
-      <c r="CD20" s="67"/>
-      <c r="CE20" s="67"/>
-      <c r="CF20" s="67"/>
-      <c r="CG20" s="67"/>
-      <c r="CH20" s="67"/>
-      <c r="CI20" s="67"/>
-      <c r="CJ20" s="67"/>
-      <c r="CK20" s="67"/>
-      <c r="CL20" s="67"/>
-      <c r="CM20" s="67"/>
-      <c r="CN20" s="67"/>
-      <c r="CO20" s="67"/>
-      <c r="CP20" s="67"/>
-      <c r="CQ20" s="67"/>
-      <c r="CR20" s="67"/>
-      <c r="CS20" s="46"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="71"/>
+      <c r="BF20" s="71"/>
+      <c r="BG20" s="71"/>
+      <c r="BH20" s="71"/>
+      <c r="BI20" s="71"/>
+      <c r="BJ20" s="71"/>
+      <c r="BK20" s="71"/>
+      <c r="BL20" s="71"/>
+      <c r="BM20" s="71"/>
+      <c r="BN20" s="71"/>
+      <c r="BO20" s="71"/>
+      <c r="BP20" s="71"/>
+      <c r="BQ20" s="71"/>
+      <c r="BR20" s="71"/>
+      <c r="BS20" s="71"/>
+      <c r="BT20" s="71"/>
+      <c r="BU20" s="71"/>
+      <c r="BV20" s="71"/>
+      <c r="BW20" s="71"/>
+      <c r="BX20" s="71"/>
+      <c r="BY20" s="71"/>
+      <c r="BZ20" s="71"/>
+      <c r="CA20" s="71"/>
+      <c r="CB20" s="71"/>
+      <c r="CC20" s="71"/>
+      <c r="CD20" s="71"/>
+      <c r="CE20" s="71"/>
+      <c r="CF20" s="71"/>
+      <c r="CG20" s="71"/>
+      <c r="CH20" s="71"/>
+      <c r="CI20" s="71"/>
+      <c r="CJ20" s="71"/>
+      <c r="CK20" s="71"/>
+      <c r="CL20" s="71"/>
+      <c r="CM20" s="71"/>
+      <c r="CN20" s="71"/>
+      <c r="CO20" s="71"/>
+      <c r="CP20" s="71"/>
+      <c r="CQ20" s="71"/>
+      <c r="CR20" s="71"/>
+      <c r="CS20" s="58"/>
     </row>
     <row r="21" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="67"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="67"/>
-      <c r="AR21" s="67"/>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="67"/>
-      <c r="BH21" s="67"/>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="67"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="67"/>
-      <c r="BP21" s="67"/>
-      <c r="BQ21" s="67"/>
-      <c r="BR21" s="67"/>
-      <c r="BS21" s="67"/>
-      <c r="BT21" s="67"/>
-      <c r="BU21" s="67"/>
-      <c r="BV21" s="67"/>
-      <c r="BW21" s="67"/>
-      <c r="BX21" s="67"/>
-      <c r="BY21" s="67"/>
-      <c r="BZ21" s="67"/>
-      <c r="CA21" s="67"/>
-      <c r="CB21" s="67"/>
-      <c r="CC21" s="67"/>
-      <c r="CD21" s="67"/>
-      <c r="CE21" s="67"/>
-      <c r="CF21" s="67"/>
-      <c r="CG21" s="67"/>
-      <c r="CH21" s="67"/>
-      <c r="CI21" s="67"/>
-      <c r="CJ21" s="67"/>
-      <c r="CK21" s="67"/>
-      <c r="CL21" s="67"/>
-      <c r="CM21" s="67"/>
-      <c r="CN21" s="67"/>
-      <c r="CO21" s="67"/>
-      <c r="CP21" s="67"/>
-      <c r="CQ21" s="67"/>
-      <c r="CR21" s="67"/>
-      <c r="CS21" s="46"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="71"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="71"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="71"/>
+      <c r="BF21" s="71"/>
+      <c r="BG21" s="71"/>
+      <c r="BH21" s="71"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="71"/>
+      <c r="BK21" s="71"/>
+      <c r="BL21" s="71"/>
+      <c r="BM21" s="71"/>
+      <c r="BN21" s="71"/>
+      <c r="BO21" s="71"/>
+      <c r="BP21" s="71"/>
+      <c r="BQ21" s="71"/>
+      <c r="BR21" s="71"/>
+      <c r="BS21" s="71"/>
+      <c r="BT21" s="71"/>
+      <c r="BU21" s="71"/>
+      <c r="BV21" s="71"/>
+      <c r="BW21" s="71"/>
+      <c r="BX21" s="71"/>
+      <c r="BY21" s="71"/>
+      <c r="BZ21" s="71"/>
+      <c r="CA21" s="71"/>
+      <c r="CB21" s="71"/>
+      <c r="CC21" s="71"/>
+      <c r="CD21" s="71"/>
+      <c r="CE21" s="71"/>
+      <c r="CF21" s="71"/>
+      <c r="CG21" s="71"/>
+      <c r="CH21" s="71"/>
+      <c r="CI21" s="71"/>
+      <c r="CJ21" s="71"/>
+      <c r="CK21" s="71"/>
+      <c r="CL21" s="71"/>
+      <c r="CM21" s="71"/>
+      <c r="CN21" s="71"/>
+      <c r="CO21" s="71"/>
+      <c r="CP21" s="71"/>
+      <c r="CQ21" s="71"/>
+      <c r="CR21" s="71"/>
+      <c r="CS21" s="58"/>
     </row>
     <row r="22" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="67"/>
-      <c r="AN22" s="67"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="67"/>
-      <c r="AQ22" s="67"/>
-      <c r="AR22" s="67"/>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="67"/>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="67"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
-      <c r="BA22" s="66"/>
-      <c r="BB22" s="66"/>
-      <c r="BC22" s="66"/>
-      <c r="BD22" s="66"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="67"/>
-      <c r="BG22" s="67"/>
-      <c r="BH22" s="67"/>
-      <c r="BI22" s="67"/>
-      <c r="BJ22" s="67"/>
-      <c r="BK22" s="67"/>
-      <c r="BL22" s="67"/>
-      <c r="BM22" s="67"/>
-      <c r="BN22" s="67"/>
-      <c r="BO22" s="67"/>
-      <c r="BP22" s="67"/>
-      <c r="BQ22" s="67"/>
-      <c r="BR22" s="67"/>
-      <c r="BS22" s="67"/>
-      <c r="BT22" s="67"/>
-      <c r="BU22" s="67"/>
-      <c r="BV22" s="67"/>
-      <c r="BW22" s="67"/>
-      <c r="BX22" s="67"/>
-      <c r="BY22" s="67"/>
-      <c r="BZ22" s="67"/>
-      <c r="CA22" s="67"/>
-      <c r="CB22" s="67"/>
-      <c r="CC22" s="67"/>
-      <c r="CD22" s="67"/>
-      <c r="CE22" s="67"/>
-      <c r="CF22" s="67"/>
-      <c r="CG22" s="67"/>
-      <c r="CH22" s="67"/>
-      <c r="CI22" s="67"/>
-      <c r="CJ22" s="67"/>
-      <c r="CK22" s="67"/>
-      <c r="CL22" s="67"/>
-      <c r="CM22" s="67"/>
-      <c r="CN22" s="67"/>
-      <c r="CO22" s="67"/>
-      <c r="CP22" s="67"/>
-      <c r="CQ22" s="67"/>
-      <c r="CR22" s="67"/>
-      <c r="CS22" s="46"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="61"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="61"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="71"/>
+      <c r="BG22" s="71"/>
+      <c r="BH22" s="71"/>
+      <c r="BI22" s="71"/>
+      <c r="BJ22" s="71"/>
+      <c r="BK22" s="71"/>
+      <c r="BL22" s="71"/>
+      <c r="BM22" s="71"/>
+      <c r="BN22" s="71"/>
+      <c r="BO22" s="71"/>
+      <c r="BP22" s="71"/>
+      <c r="BQ22" s="71"/>
+      <c r="BR22" s="71"/>
+      <c r="BS22" s="71"/>
+      <c r="BT22" s="71"/>
+      <c r="BU22" s="71"/>
+      <c r="BV22" s="71"/>
+      <c r="BW22" s="71"/>
+      <c r="BX22" s="71"/>
+      <c r="BY22" s="71"/>
+      <c r="BZ22" s="71"/>
+      <c r="CA22" s="71"/>
+      <c r="CB22" s="71"/>
+      <c r="CC22" s="71"/>
+      <c r="CD22" s="71"/>
+      <c r="CE22" s="71"/>
+      <c r="CF22" s="71"/>
+      <c r="CG22" s="71"/>
+      <c r="CH22" s="71"/>
+      <c r="CI22" s="71"/>
+      <c r="CJ22" s="71"/>
+      <c r="CK22" s="71"/>
+      <c r="CL22" s="71"/>
+      <c r="CM22" s="71"/>
+      <c r="CN22" s="71"/>
+      <c r="CO22" s="71"/>
+      <c r="CP22" s="71"/>
+      <c r="CQ22" s="71"/>
+      <c r="CR22" s="71"/>
+      <c r="CS22" s="58"/>
     </row>
     <row r="23" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
-      <c r="AP23" s="70"/>
-      <c r="AQ23" s="70"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
-      <c r="BE23" s="70"/>
-      <c r="BF23" s="70"/>
-      <c r="BG23" s="70"/>
-      <c r="BH23" s="70"/>
-      <c r="BI23" s="70"/>
-      <c r="BJ23" s="70"/>
-      <c r="BK23" s="70"/>
-      <c r="BL23" s="70"/>
-      <c r="BM23" s="70"/>
-      <c r="BN23" s="70"/>
-      <c r="BO23" s="70"/>
-      <c r="BP23" s="70"/>
-      <c r="BQ23" s="70"/>
-      <c r="BR23" s="70"/>
-      <c r="BS23" s="70"/>
-      <c r="BT23" s="70"/>
-      <c r="BU23" s="70"/>
-      <c r="BV23" s="70"/>
-      <c r="BW23" s="70"/>
-      <c r="BX23" s="70"/>
-      <c r="BY23" s="70"/>
-      <c r="BZ23" s="70"/>
-      <c r="CA23" s="70"/>
-      <c r="CB23" s="70"/>
-      <c r="CC23" s="70"/>
-      <c r="CD23" s="70"/>
-      <c r="CE23" s="70"/>
-      <c r="CF23" s="70"/>
-      <c r="CG23" s="70"/>
-      <c r="CH23" s="70"/>
-      <c r="CI23" s="70"/>
-      <c r="CJ23" s="70"/>
-      <c r="CK23" s="70"/>
-      <c r="CL23" s="70"/>
-      <c r="CM23" s="70"/>
-      <c r="CN23" s="70"/>
-      <c r="CO23" s="70"/>
-      <c r="CP23" s="70"/>
-      <c r="CQ23" s="70"/>
-      <c r="CR23" s="70"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="75"/>
+      <c r="AX23" s="75"/>
+      <c r="AY23" s="75"/>
+      <c r="AZ23" s="75"/>
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="75"/>
+      <c r="BC23" s="75"/>
+      <c r="BD23" s="75"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="76"/>
+      <c r="BH23" s="76"/>
+      <c r="BI23" s="76"/>
+      <c r="BJ23" s="76"/>
+      <c r="BK23" s="76"/>
+      <c r="BL23" s="76"/>
+      <c r="BM23" s="76"/>
+      <c r="BN23" s="76"/>
+      <c r="BO23" s="76"/>
+      <c r="BP23" s="76"/>
+      <c r="BQ23" s="76"/>
+      <c r="BR23" s="76"/>
+      <c r="BS23" s="76"/>
+      <c r="BT23" s="76"/>
+      <c r="BU23" s="76"/>
+      <c r="BV23" s="76"/>
+      <c r="BW23" s="76"/>
+      <c r="BX23" s="76"/>
+      <c r="BY23" s="76"/>
+      <c r="BZ23" s="76"/>
+      <c r="CA23" s="76"/>
+      <c r="CB23" s="76"/>
+      <c r="CC23" s="76"/>
+      <c r="CD23" s="76"/>
+      <c r="CE23" s="76"/>
+      <c r="CF23" s="76"/>
+      <c r="CG23" s="76"/>
+      <c r="CH23" s="76"/>
+      <c r="CI23" s="76"/>
+      <c r="CJ23" s="76"/>
+      <c r="CK23" s="76"/>
+      <c r="CL23" s="76"/>
+      <c r="CM23" s="76"/>
+      <c r="CN23" s="76"/>
+      <c r="CO23" s="76"/>
+      <c r="CP23" s="76"/>
+      <c r="CQ23" s="76"/>
+      <c r="CR23" s="76"/>
       <c r="CS23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="CK21:CS21"/>
+    <mergeCell ref="CK22:CS22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="I23:R23"/>
     <mergeCell ref="S23:Z23"/>
@@ -3437,9 +3446,6 @@
     <mergeCell ref="BE23:BN23"/>
     <mergeCell ref="BO23:CJ23"/>
     <mergeCell ref="CK23:CS23"/>
-    <mergeCell ref="BO21:CJ21"/>
-    <mergeCell ref="CK21:CS21"/>
-    <mergeCell ref="CK20:CS20"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="I22:R22"/>
     <mergeCell ref="S22:Z22"/>
@@ -3454,7 +3460,7 @@
     <mergeCell ref="AA21:AV21"/>
     <mergeCell ref="AW21:BD21"/>
     <mergeCell ref="BE21:BN21"/>
-    <mergeCell ref="CK22:CS22"/>
+    <mergeCell ref="BO21:CJ21"/>
     <mergeCell ref="BO19:CJ19"/>
     <mergeCell ref="CK19:CS19"/>
     <mergeCell ref="CK18:CS18"/>
@@ -3470,6 +3476,7 @@
     <mergeCell ref="AA19:AV19"/>
     <mergeCell ref="AW19:BD19"/>
     <mergeCell ref="BE19:BN19"/>
+    <mergeCell ref="CK20:CS20"/>
     <mergeCell ref="BO17:CJ17"/>
     <mergeCell ref="CK17:CS17"/>
     <mergeCell ref="A18:H18"/>
@@ -3589,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,51 +3613,51 @@
         <v>27</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="21"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="57" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="85" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
@@ -3681,8 +3688,8 @@
       <c r="L4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="61"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -3901,10 +3908,10 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
